--- a/results/minecore1106.xlsx
+++ b/results/minecore1106.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="0" yWindow="-20" windowWidth="24780" windowHeight="15080" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="DL" sheetId="1" r:id="rId1"/>
-    <sheet name="JB" sheetId="2" r:id="rId2"/>
-    <sheet name="MG" sheetId="3" r:id="rId3"/>
+    <sheet name="CostStructure1" sheetId="1" r:id="rId1"/>
+    <sheet name="CostStructure2" sheetId="2" r:id="rId2"/>
+    <sheet name="CostStructure3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -772,7 +772,7 @@
   <dimension ref="A1:AD296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -26224,7 +26224,7 @@
   <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
